--- a/Artéfacts/Artéfacts Sprint 5/Calendrier Sprint 5.xlsx
+++ b/Artéfacts/Artéfacts Sprint 5/Calendrier Sprint 5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donoc\Desktop\L3 Informatique\Semestre 2\Projet de développement\Artéfacts\Artéfacts Sprint 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C66935-2FDC-4B56-A505-DC23417E912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1620613-4A7B-4D70-A444-42F69FDD8E6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9DAF1FEF-636C-495F-A4D9-98A6306D3E56}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>LUNDI</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Tâches terminé le 26/03/2024</t>
   </si>
   <si>
-    <t>Tâche terminé le 30/03/2024</t>
-  </si>
-  <si>
     <t>Amélioration de la Discussion</t>
   </si>
   <si>
@@ -126,7 +123,13 @@
     <t>Faire un rapport de fin de Sprint</t>
   </si>
   <si>
-    <t>Tâche terminé le 31/03/2024</t>
+    <t>Tâches terminé le 27/03/2024</t>
+  </si>
+  <si>
+    <t>Tâches terminé le 31/03/2024</t>
+  </si>
+  <si>
+    <t>(Impossible en raison des problèmes liés au site)</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -229,8 +232,6 @@
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25C790B-9A69-420E-ADEC-218324962F86}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +571,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -582,14 +583,14 @@
       <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -602,7 +603,7 @@
         <v>45377</v>
       </c>
       <c r="D2" s="1">
-        <f t="shared" ref="D2:O2" si="0">C2+1</f>
+        <f t="shared" ref="D2:H2" si="0">C2+1</f>
         <v>45378</v>
       </c>
       <c r="E2" s="1">
@@ -621,25 +622,15 @@
         <f t="shared" si="0"/>
         <v>45382</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -666,14 +657,6 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -685,8 +668,8 @@
       <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="14">
-        <v>0</v>
+      <c r="D5" s="5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -697,27 +680,9 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="H5" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -733,93 +698,27 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>G7+H4-H5</f>
-        <v>6</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -853,7 +752,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,15 +772,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA30D50F-0BD7-4D6D-98EF-6C8A8DFFE157}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="40.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -896,83 +795,73 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="14">
+        <v>23</v>
+      </c>
+      <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="14">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="14"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="14">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
-      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="14">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
-      <c r="C12" s="14"/>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="14">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6">
         <v>1</v>
       </c>
     </row>
